--- a/biology/Zoologie/Arctosa_dissonans/Arctosa_dissonans.xlsx
+++ b/biology/Zoologie/Arctosa_dissonans/Arctosa_dissonans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctosa dissonans est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctosa dissonans est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Syrie, au Liban et en Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Syrie, au Liban et en Israël.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1872 : General list of the spiders of Palestine and Syria, with descriptions of numerous new species, and characters of two new genera. Proceedings of the Zoological Society of London, vol. 1871, p. 212-354 (texte intégral).</t>
         </is>
